--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="437">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,7 +471,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
+    <t>Pharmaceutical registration number (Pharmazentralnummer (PZN))</t>
   </si>
   <si>
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
@@ -761,7 +761,7 @@
 </t>
   </si>
   <si>
-    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. See also packaging.containedItem.amount (especially the long definition)</t>
+    <t>Size / Weight of the package</t>
   </si>
   <si>
     <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
@@ -981,7 +981,7 @@
 </t>
   </si>
   <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
+    <t>Delivery state of the package</t>
   </si>
   <si>
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
@@ -1148,6 +1148,9 @@
   </si>
   <si>
     <t>PackagedProductDefinition.packaging.type</t>
+  </si>
+  <si>
+    <t>Package type container</t>
   </si>
   <si>
     <t>https://ema.europa.eu/fhir/vs/packaging</t>
@@ -7927,7 +7930,7 @@
         <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>328</v>
@@ -7963,7 +7966,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8007,10 +8010,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8036,10 +8039,10 @@
         <v>340</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8047,7 +8050,7 @@
         <v>74</v>
       </c>
       <c r="Q58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>74</v>
@@ -8092,7 +8095,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8110,7 +8113,7 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8118,10 +8121,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8144,13 +8147,13 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8201,7 +8204,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8219,7 +8222,7 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8227,10 +8230,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8256,10 +8259,10 @@
         <v>173</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8289,10 +8292,10 @@
         <v>219</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8310,7 +8313,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8328,7 +8331,7 @@
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8336,10 +8339,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8365,10 +8368,10 @@
         <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8398,10 +8401,10 @@
         <v>219</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8419,7 +8422,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8437,7 +8440,7 @@
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8445,10 +8448,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8471,13 +8474,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8528,7 +8531,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8546,7 +8549,7 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8554,10 +8557,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8583,10 +8586,10 @@
         <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8637,7 +8640,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8655,7 +8658,7 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8663,10 +8666,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8692,10 +8695,10 @@
         <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8746,7 +8749,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8764,7 +8767,7 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -8772,10 +8775,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8881,10 +8884,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8992,10 +8995,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9105,10 +9108,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9134,10 +9137,10 @@
         <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9167,10 +9170,10 @@
         <v>219</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9188,7 +9191,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>85</v>
@@ -9206,7 +9209,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9214,10 +9217,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9240,13 +9243,13 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9297,7 +9300,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9315,7 +9318,7 @@
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9323,10 +9326,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9352,10 +9355,10 @@
         <v>287</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9406,7 +9409,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9424,7 +9427,7 @@
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9432,10 +9435,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9541,10 +9544,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9652,10 +9655,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9765,10 +9768,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9791,13 +9794,13 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9848,7 +9851,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>85</v>
@@ -9866,7 +9869,7 @@
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -9874,10 +9877,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9903,10 +9906,10 @@
         <v>238</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9957,7 +9960,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -9975,7 +9978,7 @@
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>74</v>
@@ -9983,10 +9986,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10012,10 +10015,10 @@
         <v>77</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10066,7 +10069,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10084,7 +10087,7 @@
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>74</v>
@@ -10092,10 +10095,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10121,10 +10124,10 @@
         <v>77</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10175,7 +10178,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,7 +471,7 @@
 </t>
   </si>
   <si>
-    <t>Pharmaceutical registration number (Pharmazentralnummer (PZN))</t>
+    <t>A unique identifier for this package as whole - not for the content of the package (pharmaceutical registration number (Pharmazentralnummer (PZN)))</t>
   </si>
   <si>
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
@@ -761,7 +761,7 @@
 </t>
   </si>
   <si>
-    <t>Size / Weight of the package</t>
+    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. See also packaging.containedItem.amount (size / weight of the package)</t>
   </si>
   <si>
     <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
@@ -981,7 +981,7 @@
 </t>
   </si>
   <si>
-    <t>Delivery state of the package</t>
+    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated (delivery state of the package)</t>
   </si>
   <si>
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
@@ -1150,7 +1150,7 @@
     <t>PackagedProductDefinition.packaging.type</t>
   </si>
   <si>
-    <t>Package type container</t>
+    <t>The physical type of the container of the items (package type container)</t>
   </si>
   <si>
     <t>https://ema.europa.eu/fhir/vs/packaging</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,6 +467,9 @@
     <t>PackagedProductDefinition.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-identifier}
 </t>
   </si>
@@ -474,17 +477,39 @@
     <t>A unique identifier for this package as whole - not for the content of the package (pharmaceutical registration number (Pharmazentralnummer (PZN)))</t>
   </si>
   <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t>The rules of the identifier.type  determine if a check digit is part of the ID value or sent separately, such as through the checkDigit extension.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ident-1:Identifier with no value has limited utility.  If communicating that an identifier value has been suppressed or missing, the value element SHOULD be present with an extension indicating the missing semantic - e.g. data-absent-reason {value.exists()}</t>
-  </si>
-  <si>
-    <t>n/a,II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+    <t>A unique identifier for this package as whole - not the the content of the package. Unique instance identifiers assigned to a package by manufacturers, regulators, drug catalogue custodians or other organizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>The package has the ID PZN as well as a Pharos ID from the Austrian Agency</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Packaged Medicinal Product.PCID</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:PZN</t>
+  </si>
+  <si>
+    <t>PZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>A unique identifier for this package as whole - not for the content of the package</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:PZN.id</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.id</t>
@@ -506,6 +531,9 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.identifier:PZN.extension</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.identifier.extension</t>
   </si>
   <si>
@@ -519,12 +547,12 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.identifier:PZN.use</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.identifier.use</t>
   </si>
   <si>
@@ -550,6 +578,9 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:PZN.type</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.type</t>
@@ -583,6 +614,9 @@
     <t>Identifier.type</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.identifier:PZN.system</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.identifier.system</t>
   </si>
   <si>
@@ -608,6 +642,9 @@
   </si>
   <si>
     <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:PZN.value</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.value</t>
@@ -639,6 +676,9 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.identifier:PZN.period</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.identifier.period</t>
   </si>
   <si>
@@ -658,6 +698,9 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.identifier:PZN.assigner</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.identifier.assigner</t>
   </si>
   <si>
@@ -680,6 +723,39 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber</t>
+  </si>
+  <si>
+    <t>referenceNumber</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.use</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.type</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.system</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/referenceNumber</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.value</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.period</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.identifier:referenceNumber.assigner</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.name</t>
   </si>
   <si>
@@ -1134,10 +1210,6 @@
     <t>PackagedProductDefinition.packaging.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
     <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
   </si>
   <si>
@@ -1150,7 +1222,7 @@
     <t>PackagedProductDefinition.packaging.type</t>
   </si>
   <si>
-    <t>The physical type of the container of the items (package type container)</t>
+    <t>The physical type of the container of the items (package type container) (Presentation List)</t>
   </si>
   <si>
     <t>https://ema.europa.eu/fhir/vs/packaging</t>
@@ -1340,7 +1412,7 @@
     <t>PackagedProductDefinition.packaging.containedItem.amount</t>
   </si>
   <si>
-    <t>The number of this type of item within this packaging or for continuous items such as liquids it is the quantity (for example 25ml). See also PackagedProductDefinition.containedItemQuantity (especially the long definition)</t>
+    <t>The amount of the manufactured Item inside this packaging (E.g. Number of ml in a bottle). Not to be mistaken with the .containedItemQuantity which is the total presentable items in the package.</t>
   </si>
   <si>
     <t>The number of this type of item within this packaging or for continuous items such as liquids it is the quantity (for example 25ml). See also PackagedProductDefinition.containedItemQuantity (especially the long definition).</t>
@@ -1349,10 +1421,34 @@
     <t>Manufactured Item.Manufactured Item Quantity</t>
   </si>
   <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.id</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.extension</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.value</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.comparator</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.unit</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.system</t>
+  </si>
+  <si>
+    <t>PackagedProductDefinition.packaging.containedItem.amount.code</t>
+  </si>
+  <si>
+    <t>https://ema.europa.eu/fhir/vs/unitsOfMeasurement</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.packaging.packaging</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) within containers, still as a part of single packaged product</t>
+    <t xml:space="preserve">In order to add more package types, additional packagings must be added first with a reference to the packaging it is included in. </t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) within containers, still as a part of a single packaged product. See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
@@ -1664,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1673,9 +1769,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="66.94921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="68.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="68.66015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.2421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1701,7 +1797,7 @@
     <col min="26" max="26" width="52.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="71.7578125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="57.40234375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1710,7 +1806,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="112.23828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="147.234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2842,10 +2938,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2854,20 +2950,18 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2904,16 +2998,16 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>144</v>
@@ -2928,32 +3022,34 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>85</v>
@@ -2965,16 +3061,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3025,47 +3121,47 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3077,17 +3173,15 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
@@ -3124,16 +3218,16 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>162</v>
@@ -3142,13 +3236,13 @@
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>74</v>
@@ -3157,51 +3251,49 @@
         <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3225,28 +3317,28 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>170</v>
@@ -3255,13 +3347,13 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -3270,12 +3362,12 @@
         <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>172</v>
@@ -3295,25 +3387,25 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3338,31 +3430,31 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3383,12 +3475,12 @@
         <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>182</v>
@@ -3399,7 +3491,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
@@ -3414,19 +3506,19 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3436,28 +3528,28 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="U16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3475,7 +3567,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3496,15 +3588,15 @@
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3512,7 +3604,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>85</v>
@@ -3527,18 +3619,20 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3547,10 +3641,10 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3586,7 +3680,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3595,7 +3689,7 @@
         <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>97</v>
@@ -3607,15 +3701,15 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3638,15 +3732,17 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
@@ -3659,7 +3755,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3695,7 +3791,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3704,7 +3800,7 @@
         <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>97</v>
@@ -3716,15 +3812,15 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3747,17 +3843,15 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3806,7 +3900,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3827,15 +3921,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3858,15 +3952,17 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3915,7 +4011,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3933,26 +4029,28 @@
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>85</v>
@@ -3967,13 +4065,13 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4000,13 +4098,13 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -4024,13 +4122,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -4039,10 +4137,10 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>74</v>
@@ -4050,10 +4148,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4061,7 +4159,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
@@ -4073,16 +4171,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4133,67 +4231,69 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -4218,60 +4318,60 @@
         <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4288,22 +4388,26 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4327,13 +4431,13 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -4351,7 +4455,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4369,18 +4473,18 @@
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4388,7 +4492,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>
@@ -4403,16 +4507,20 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4436,13 +4544,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4460,13 +4568,13 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
@@ -4478,18 +4586,18 @@
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4509,19 +4617,23 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4530,10 +4642,10 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>74</v>
@@ -4569,7 +4681,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4578,10 +4690,10 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4590,26 +4702,26 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4618,19 +4730,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4644,7 +4756,7 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>74</v>
@@ -4668,31 +4780,31 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4701,15 +4813,15 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4717,7 +4829,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4732,20 +4844,16 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4793,7 +4901,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4814,15 +4922,15 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4839,30 +4947,28 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4882,13 +4988,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4906,7 +5012,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4927,15 +5033,15 @@
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4958,18 +5064,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5017,7 +5121,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5035,18 +5139,18 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5054,7 +5158,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
@@ -5069,18 +5173,16 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5104,13 +5206,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5128,7 +5230,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5137,7 +5239,7 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>97</v>
@@ -5146,18 +5248,18 @@
         <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5180,20 +5282,16 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5217,11 +5315,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5239,16 +5339,16 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>97</v>
@@ -5257,18 +5357,18 @@
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5285,19 +5385,19 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5324,13 +5424,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5348,7 +5448,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5366,7 +5466,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5374,10 +5474,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5388,7 +5488,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5400,13 +5500,13 @@
         <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5457,13 +5557,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5475,7 +5575,7 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5483,10 +5583,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5494,7 +5594,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>85</v>
@@ -5506,16 +5606,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5566,47 +5666,47 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5618,17 +5718,15 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -5683,13 +5781,13 @@
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5698,19 +5796,19 @@
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5723,26 +5821,24 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5778,19 +5874,19 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>170</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5811,15 +5907,15 @@
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5827,7 +5923,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5842,16 +5938,20 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5875,13 +5975,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5899,7 +5999,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5917,18 +6017,18 @@
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5945,26 +6045,30 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5984,13 +6088,13 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6008,7 +6112,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6026,18 +6130,18 @@
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>74</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6045,7 +6149,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>85</v>
@@ -6060,16 +6164,18 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>204</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6117,13 +6223,13 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
@@ -6135,18 +6241,18 @@
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6154,7 +6260,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
@@ -6166,19 +6272,21 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6226,7 +6334,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6235,10 +6343,10 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6247,26 +6355,26 @@
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>156</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6275,21 +6383,23 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6313,43 +6423,41 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
@@ -6358,51 +6466,47 @@
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>156</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6450,36 +6554,36 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6490,7 +6594,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6502,13 +6606,13 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6559,13 +6663,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6577,7 +6681,7 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6585,10 +6689,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6608,16 +6712,16 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
+        <v>160</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>323</v>
+        <v>161</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6668,7 +6772,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6677,10 +6781,10 @@
         <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6689,26 +6793,26 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6720,16 +6824,16 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6755,11 +6859,13 @@
         <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>74</v>
@@ -6777,19 +6883,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>170</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6798,47 +6904,51 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6886,19 +6996,19 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6907,15 +7017,15 @@
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6938,13 +7048,13 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6971,13 +7081,13 @@
         <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>74</v>
@@ -6995,7 +7105,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7013,7 +7123,7 @@
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7021,10 +7131,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7047,22 +7157,20 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7082,13 +7190,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -7106,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7124,7 +7232,7 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7132,10 +7240,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7143,10 +7251,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7158,13 +7266,13 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7215,7 +7323,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7233,7 +7341,7 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7241,10 +7349,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7255,7 +7363,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7264,16 +7372,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>87</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7324,47 +7432,47 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7373,18 +7481,20 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>134</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7421,80 +7531,84 @@
         <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7542,19 +7656,19 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7563,26 +7677,26 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7591,20 +7705,18 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7653,19 +7765,19 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>162</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7674,51 +7786,47 @@
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7766,19 +7874,19 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7787,15 +7895,15 @@
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7803,10 +7911,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7815,18 +7923,20 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -7851,13 +7961,11 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -7875,13 +7983,13 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
@@ -7893,18 +8001,18 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>363</v>
+        <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7924,20 +8032,18 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7962,11 +8068,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>366</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -7984,7 +8092,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8005,15 +8113,15 @@
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>332</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8036,22 +8144,20 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q58" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8095,7 +8201,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8113,7 +8219,7 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -8121,10 +8227,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8147,20 +8253,22 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="R59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8204,7 +8312,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8222,7 +8330,7 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>376</v>
+        <v>164</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>
@@ -8230,10 +8338,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8256,13 +8364,13 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8289,13 +8397,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8313,7 +8421,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8331,7 +8439,7 @@
         <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8339,10 +8447,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8365,13 +8473,13 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8398,13 +8506,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8422,7 +8530,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8440,7 +8548,7 @@
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>386</v>
+        <v>164</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8448,10 +8556,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8462,7 +8570,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8474,13 +8582,13 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8531,13 +8639,13 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
@@ -8549,7 +8657,7 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8557,10 +8665,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8571,7 +8679,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8580,16 +8688,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>393</v>
+        <v>160</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>394</v>
+        <v>161</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8640,40 +8748,40 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>392</v>
+        <v>162</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>395</v>
+        <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8689,18 +8797,20 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8749,7 +8859,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>396</v>
+        <v>170</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8761,56 +8871,60 @@
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8858,19 +8972,19 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8879,19 +8993,19 @@
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8907,20 +9021,18 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>134</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -8969,7 +9081,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -8981,60 +9093,58 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9058,13 +9168,11 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9082,19 +9190,19 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -9103,15 +9211,15 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>130</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9119,7 +9227,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>85</v>
@@ -9134,20 +9242,22 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9167,13 +9277,13 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9191,10 +9301,10 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>85</v>
@@ -9209,7 +9319,7 @@
         <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>74</v>
@@ -9217,10 +9327,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9243,13 +9353,13 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9300,7 +9410,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9318,7 +9428,7 @@
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>
@@ -9326,10 +9436,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9352,13 +9462,13 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9385,13 +9495,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -9409,7 +9519,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9427,7 +9537,7 @@
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>74</v>
@@ -9435,10 +9545,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9449,7 +9559,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9458,16 +9568,16 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>153</v>
+        <v>409</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9494,13 +9604,13 @@
         <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>74</v>
@@ -9518,40 +9628,40 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>154</v>
+        <v>407</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -9567,20 +9677,18 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>133</v>
+        <v>412</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -9629,7 +9737,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>162</v>
+        <v>411</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -9641,28 +9749,28 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>74</v>
+        <v>415</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9675,26 +9783,22 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>74</v>
       </c>
@@ -9742,7 +9846,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -9754,24 +9858,24 @@
         <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9779,10 +9883,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -9794,13 +9898,13 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9851,13 +9955,13 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
@@ -9869,7 +9973,7 @@
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>74</v>
@@ -9877,10 +9981,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9900,16 +10004,16 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>427</v>
+        <v>160</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>428</v>
+        <v>161</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9960,7 +10064,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>426</v>
+        <v>162</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -9969,31 +10073,31 @@
         <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10009,18 +10113,20 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>431</v>
+        <v>134</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10069,7 +10175,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10081,28 +10187,28 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10115,22 +10221,26 @@
         <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10178,7 +10288,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10190,15 +10300,1890 @@
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AK78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q89" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y92" s="2"/>
+      <c r="Z92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-packagedProductDefinition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
